--- a/docs/methods.xlsx
+++ b/docs/methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\illuminator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE4CDF2-92D0-4970-B07B-8BE29FE4DF50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF17A7-C95A-4D83-82F1-0FB63FFAE2C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="-108" windowWidth="30060" windowHeight="17496" xr2:uid="{05C78743-E469-44DD-991D-69BFD24C82A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Emit methods</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>with ILEmitterFunc and input parameters</t>
+  </si>
+  <si>
+    <t>Il generator</t>
+  </si>
+  <si>
+    <t>MarkLabel</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Emit call op codes</t>
+  </si>
+  <si>
+    <t>EmitCall(i)</t>
+  </si>
+  <si>
+    <t>Core methods</t>
   </si>
 </sst>
 </file>
@@ -391,40 +409,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5786FDFD-4094-4A73-9D1D-E90572FD419F}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="2" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
